--- a/results/Karol/results_article/o1/MINIMAL_DIAGNOSES.xlsx
+++ b/results/Karol/results_article/o1/MINIMAL_DIAGNOSES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakto\Desktop\Pulpit\FaultDiagnosis\FaultDiagnosis\results_article\o1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ania\LLM_and_diagnosisv2\results\Karol\results_article\o1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E09287B-0C5F-43A9-9790-6BC8EC39952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F517F98A-6729-48C9-9D12-CF046C9FE154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15840" tabRatio="802" xr2:uid="{D7477BF9-CFC4-44C8-A16A-B837FBE23178}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="802" xr2:uid="{D7477BF9-CFC4-44C8-A16A-B837FBE23178}"/>
   </bookViews>
   <sheets>
     <sheet name="MINIMAL DIAGNOSES" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="233">
   <si>
     <t>A1</t>
   </si>
@@ -1617,33 +1617,6 @@
     <t>Attempt 1</t>
   </si>
   <si>
-    <t>Attempt 2</t>
-  </si>
-  <si>
-    <t>Attempt 3</t>
-  </si>
-  <si>
-    <t>Attempt 4</t>
-  </si>
-  <si>
-    <t>Attempt 5</t>
-  </si>
-  <si>
-    <t>Attempt 6</t>
-  </si>
-  <si>
-    <t>Attempt 7</t>
-  </si>
-  <si>
-    <t>Attempt 8</t>
-  </si>
-  <si>
-    <t>Attempt 9</t>
-  </si>
-  <si>
-    <t>Attempt 10</t>
-  </si>
-  <si>
     <t>Avarage</t>
   </si>
   <si>
@@ -1793,9 +1766,6 @@
 O4
 O2, A1
 O2, O1</t>
-  </si>
-  <si>
-    <t>Example contant</t>
   </si>
   <si>
     <t>Observations</t>
@@ -3444,6 +3414,9 @@
   <si>
     <t>A1
 M1</t>
+  </si>
+  <si>
+    <t>Example content</t>
   </si>
 </sst>
 </file>
@@ -5027,64 +5000,64 @@
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="B1:BP103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:BO102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="46" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="50" max="52" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="58" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="64" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="17.7109375" style="1"/>
+    <col min="69" max="16384" width="17.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" ht="15" thickBot="1"/>
+    <row r="1" spans="2:68" ht="14.4" thickBot="1"/>
     <row r="2" spans="2:68" ht="30.75" customHeight="1" thickBot="1">
       <c r="B2" s="61" t="s">
         <v>78</v>
@@ -5102,91 +5075,73 @@
       <c r="K2" s="63"/>
       <c r="L2" s="63"/>
       <c r="M2" s="64"/>
-      <c r="N2" s="61" t="s">
-        <v>87</v>
-      </c>
+      <c r="N2" s="61"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
       <c r="R2" s="63"/>
       <c r="S2" s="64"/>
-      <c r="T2" s="61" t="s">
-        <v>88</v>
-      </c>
+      <c r="T2" s="61"/>
       <c r="U2" s="63"/>
       <c r="V2" s="63"/>
       <c r="W2" s="63"/>
       <c r="X2" s="63"/>
       <c r="Y2" s="64"/>
-      <c r="Z2" s="61" t="s">
-        <v>89</v>
-      </c>
+      <c r="Z2" s="61"/>
       <c r="AA2" s="63"/>
       <c r="AB2" s="63"/>
       <c r="AC2" s="63"/>
       <c r="AD2" s="63"/>
       <c r="AE2" s="64"/>
-      <c r="AF2" s="61" t="s">
-        <v>90</v>
-      </c>
+      <c r="AF2" s="61"/>
       <c r="AG2" s="63"/>
       <c r="AH2" s="63"/>
       <c r="AI2" s="63"/>
       <c r="AJ2" s="63"/>
       <c r="AK2" s="64"/>
-      <c r="AL2" s="61" t="s">
-        <v>91</v>
-      </c>
+      <c r="AL2" s="61"/>
       <c r="AM2" s="63"/>
       <c r="AN2" s="63"/>
       <c r="AO2" s="63"/>
       <c r="AP2" s="63"/>
       <c r="AQ2" s="64"/>
-      <c r="AR2" s="61" t="s">
-        <v>92</v>
-      </c>
+      <c r="AR2" s="61"/>
       <c r="AS2" s="63"/>
       <c r="AT2" s="63"/>
       <c r="AU2" s="63"/>
       <c r="AV2" s="63"/>
       <c r="AW2" s="64"/>
-      <c r="AX2" s="61" t="s">
-        <v>93</v>
-      </c>
+      <c r="AX2" s="61"/>
       <c r="AY2" s="63"/>
       <c r="AZ2" s="63"/>
       <c r="BA2" s="63"/>
       <c r="BB2" s="63"/>
       <c r="BC2" s="64"/>
-      <c r="BD2" s="61" t="s">
-        <v>94</v>
-      </c>
+      <c r="BD2" s="61"/>
       <c r="BE2" s="63"/>
       <c r="BF2" s="63"/>
       <c r="BG2" s="63"/>
       <c r="BH2" s="63"/>
       <c r="BI2" s="64"/>
-      <c r="BJ2" s="61" t="s">
-        <v>95</v>
-      </c>
+      <c r="BJ2" s="61"/>
       <c r="BK2" s="63"/>
       <c r="BL2" s="63"/>
       <c r="BM2" s="63"/>
       <c r="BN2" s="63"/>
       <c r="BO2" s="64"/>
     </row>
-    <row r="3" spans="2:68" ht="165.75" thickBot="1">
+    <row r="3" spans="2:68" ht="152.4" thickBot="1">
       <c r="B3" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>74</v>
@@ -5212,181 +5167,73 @@
       <c r="M3" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB3" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="BC3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="BD3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="BE3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="BF3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="BI3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="BJ3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="BK3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="BL3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="BM3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO3" s="18" t="s">
-        <v>79</v>
-      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="17"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="18"/>
       <c r="BP3" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:68" ht="99.75">
+    <row r="4" spans="2:68" ht="96.6">
       <c r="B4" s="21">
         <v>1</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E4" s="54">
         <v>0</v>
@@ -5471,13 +5318,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:68" ht="99.75">
+    <row r="5" spans="2:68" ht="96.6">
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="52" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E5" s="54">
         <v>2</v>
@@ -5566,13 +5413,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:68" ht="99.75">
+    <row r="6" spans="2:68" ht="96.6">
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="52" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E6" s="54">
         <v>2</v>
@@ -5600,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="37" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N6" s="38"/>
       <c r="O6" s="35"/>
@@ -5661,13 +5508,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:68" ht="99.75">
+    <row r="7" spans="2:68" ht="96.6">
       <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="52" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E7" s="54">
         <v>2</v>
@@ -5695,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="37" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="35"/>
@@ -5756,13 +5603,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:68" ht="120">
+    <row r="8" spans="2:68" ht="115.2">
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="57"/>
       <c r="D8" s="52" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E8" s="54">
         <v>3</v>
@@ -5851,15 +5698,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:68" ht="114">
+    <row r="9" spans="2:68" ht="110.4">
       <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E9" s="54">
         <v>0</v>
@@ -5944,13 +5791,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:68" ht="114">
+    <row r="10" spans="2:68" ht="110.4">
       <c r="B10" s="3">
         <v>7</v>
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="52" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E10" s="54">
         <v>1</v>
@@ -6039,13 +5886,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:68" ht="114">
+    <row r="11" spans="2:68" ht="110.4">
       <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="52" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E11" s="54">
         <v>1</v>
@@ -6134,13 +5981,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:68" ht="180">
+    <row r="12" spans="2:68" ht="172.8">
       <c r="B12" s="3">
         <v>9</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="52" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E12" s="54">
         <v>2</v>
@@ -6168,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="N12" s="38"/>
       <c r="O12" s="35"/>
@@ -6229,15 +6076,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:68" ht="114">
+    <row r="13" spans="2:68" ht="110.4">
       <c r="B13" s="3">
         <v>10</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E13" s="54">
         <v>0</v>
@@ -6322,13 +6169,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:68" ht="114">
+    <row r="14" spans="2:68" ht="110.4">
       <c r="B14" s="3">
         <v>11</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="52" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E14" s="54">
         <v>1</v>
@@ -6417,13 +6264,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:68" ht="114">
+    <row r="15" spans="2:68" ht="110.4">
       <c r="B15" s="3">
         <v>12</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="52" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E15" s="54">
         <v>1</v>
@@ -6512,13 +6359,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:68" ht="180">
+    <row r="16" spans="2:68" ht="172.8">
       <c r="B16" s="3">
         <v>13</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="52" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E16" s="54">
         <v>2</v>
@@ -6546,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N16" s="38"/>
       <c r="O16" s="35"/>
@@ -6607,15 +6454,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:68" ht="114">
+    <row r="17" spans="2:68" ht="110.4">
       <c r="B17" s="3">
         <v>14</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E17" s="54">
         <v>0</v>
@@ -6700,13 +6547,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:68" ht="114">
+    <row r="18" spans="2:68" ht="110.4">
       <c r="B18" s="3">
         <v>15</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="52" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E18" s="54">
         <v>1</v>
@@ -6795,13 +6642,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:68" ht="180">
+    <row r="19" spans="2:68" ht="172.8">
       <c r="B19" s="3">
         <v>16</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="52" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E19" s="54">
         <v>2</v>
@@ -6829,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="N19" s="38"/>
       <c r="O19" s="35"/>
@@ -6890,13 +6737,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:68" ht="114">
+    <row r="20" spans="2:68" ht="110.4">
       <c r="B20" s="3">
         <v>17</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="52" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E20" s="54">
         <v>1</v>
@@ -6985,15 +6832,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:68" ht="156.75">
+    <row r="21" spans="2:68" ht="151.80000000000001">
       <c r="B21" s="3">
         <v>18</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E21" s="54">
         <v>0</v>
@@ -7078,13 +6925,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:68" ht="156.75">
+    <row r="22" spans="2:68" ht="151.80000000000001">
       <c r="B22" s="3">
         <v>19</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="52" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E22" s="54">
         <v>2</v>
@@ -7112,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="N22" s="38"/>
       <c r="O22" s="35"/>
@@ -7173,13 +7020,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:68" ht="156.75">
+    <row r="23" spans="2:68" ht="151.80000000000001">
       <c r="B23" s="3">
         <v>20</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="52" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E23" s="54">
         <v>2</v>
@@ -7268,13 +7115,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:68" ht="315">
+    <row r="24" spans="2:68" ht="302.39999999999998">
       <c r="B24" s="3">
         <v>21</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="52" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E24" s="54">
         <v>3</v>
@@ -7363,15 +7210,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:68" ht="128.25">
+    <row r="25" spans="2:68" ht="124.2">
       <c r="B25" s="3">
         <v>22</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E25" s="54">
         <v>0</v>
@@ -7456,13 +7303,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:68" ht="128.25">
+    <row r="26" spans="2:68" ht="124.2">
       <c r="B26" s="3">
         <v>23</v>
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="52" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E26" s="54">
         <v>2</v>
@@ -7551,13 +7398,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:68" ht="128.25">
+    <row r="27" spans="2:68" ht="124.2">
       <c r="B27" s="3">
         <v>24</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="52" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E27" s="54">
         <v>2</v>
@@ -7585,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="N27" s="38"/>
       <c r="O27" s="35"/>
@@ -7646,13 +7493,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:68" ht="128.25">
+    <row r="28" spans="2:68" ht="124.2">
       <c r="B28" s="3">
         <v>25</v>
       </c>
       <c r="C28" s="57"/>
       <c r="D28" s="52" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E28" s="54">
         <v>2</v>
@@ -7741,15 +7588,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:68" ht="142.5">
+    <row r="29" spans="2:68" ht="138">
       <c r="B29" s="3">
         <v>26</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E29" s="54">
         <v>0</v>
@@ -7834,13 +7681,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:68" ht="315">
+    <row r="30" spans="2:68" ht="302.39999999999998">
       <c r="B30" s="3">
         <v>27</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="52" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E30" s="54">
         <v>3</v>
@@ -7868,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="37" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="N30" s="38"/>
       <c r="O30" s="35"/>
@@ -7929,13 +7776,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:68" ht="142.5">
+    <row r="31" spans="2:68" ht="138">
       <c r="B31" s="3">
         <v>28</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="52" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E31" s="54">
         <v>4</v>
@@ -7963,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N31" s="38"/>
       <c r="O31" s="35"/>
@@ -8024,13 +7871,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:68" ht="299.25">
+    <row r="32" spans="2:68" ht="289.8">
       <c r="B32" s="3">
         <v>29</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="52" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E32" s="54">
         <v>3</v>
@@ -8058,7 +7905,7 @@
         <v>4.7619047619047603E-2</v>
       </c>
       <c r="M32" s="37" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="N32" s="38"/>
       <c r="O32" s="35"/>
@@ -8119,13 +7966,13 @@
         <v>4.7619047619047603E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:68" ht="409.5">
+    <row r="33" spans="2:68" ht="409.6">
       <c r="B33" s="3">
         <v>30</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="52" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E33" s="54">
         <v>5</v>
@@ -8153,7 +8000,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="M33" s="37" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="N33" s="38"/>
       <c r="O33" s="35"/>
@@ -8214,13 +8061,13 @@
         <v>8.8888888888888795E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:68" ht="409.5">
+    <row r="34" spans="2:68" ht="400.2">
       <c r="B34" s="3">
         <v>31</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="52" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E34" s="54">
         <v>5</v>
@@ -8248,7 +8095,7 @@
         <v>0.31034482758620602</v>
       </c>
       <c r="M34" s="37" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="N34" s="38"/>
       <c r="O34" s="35"/>
@@ -8309,13 +8156,13 @@
         <v>0.31034482758620602</v>
       </c>
     </row>
-    <row r="35" spans="2:68" ht="356.25">
+    <row r="35" spans="2:68" ht="345">
       <c r="B35" s="3">
         <v>32</v>
       </c>
       <c r="C35" s="59"/>
       <c r="D35" s="52" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E35" s="54">
         <v>4</v>
@@ -8343,7 +8190,7 @@
         <v>0.68</v>
       </c>
       <c r="M35" s="37" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="N35" s="38"/>
       <c r="O35" s="35"/>
@@ -8404,13 +8251,13 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="36" spans="2:68" ht="142.5">
+    <row r="36" spans="2:68" ht="138">
       <c r="B36" s="3">
         <v>33</v>
       </c>
       <c r="C36" s="57"/>
       <c r="D36" s="52" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E36" s="54">
         <v>3</v>
@@ -8438,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="37" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="N36" s="38"/>
       <c r="O36" s="35"/>
@@ -8499,15 +8346,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:68" ht="242.25">
+    <row r="37" spans="2:68" ht="234.6">
       <c r="B37" s="3">
         <v>34</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E37" s="54">
         <v>0</v>
@@ -8592,13 +8439,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:68" ht="409.5">
+    <row r="38" spans="2:68" ht="409.6">
       <c r="B38" s="3">
         <v>35</v>
       </c>
       <c r="C38" s="59"/>
       <c r="D38" s="52" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E38" s="54">
         <v>5</v>
@@ -8626,7 +8473,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="M38" s="37" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="N38" s="38"/>
       <c r="O38" s="35"/>
@@ -8687,13 +8534,13 @@
         <v>0.59183673469387699</v>
       </c>
     </row>
-    <row r="39" spans="2:68" ht="409.5">
+    <row r="39" spans="2:68" ht="409.6">
       <c r="B39" s="3">
         <v>36</v>
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="52" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E39" s="54">
         <v>3</v>
@@ -8721,7 +8568,7 @@
         <v>2.7027027027027001E-2</v>
       </c>
       <c r="M39" s="37" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="N39" s="38"/>
       <c r="O39" s="35"/>
@@ -8782,13 +8629,13 @@
         <v>2.7027027027027001E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:68" ht="409.5">
+    <row r="40" spans="2:68" ht="409.6">
       <c r="B40" s="3">
         <v>37</v>
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="52" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E40" s="54">
         <v>6</v>
@@ -8816,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="N40" s="38"/>
       <c r="O40" s="35"/>
@@ -8877,13 +8724,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:68" ht="409.5">
+    <row r="41" spans="2:68" ht="409.6">
       <c r="B41" s="3">
         <v>38</v>
       </c>
       <c r="C41" s="59"/>
       <c r="D41" s="52" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E41" s="54">
         <v>3</v>
@@ -8911,7 +8758,7 @@
         <v>2.7027027027027001E-2</v>
       </c>
       <c r="M41" s="37" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="N41" s="38"/>
       <c r="O41" s="35"/>
@@ -8972,13 +8819,13 @@
         <v>2.7027027027027001E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:68" ht="242.25">
+    <row r="42" spans="2:68" ht="234.6">
       <c r="B42" s="3">
         <v>39</v>
       </c>
       <c r="C42" s="59"/>
       <c r="D42" s="52" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E42" s="54">
         <v>4</v>
@@ -9006,7 +8853,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="M42" s="37" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="N42" s="38"/>
       <c r="O42" s="35"/>
@@ -9067,13 +8914,13 @@
         <v>0.38461538461538403</v>
       </c>
     </row>
-    <row r="43" spans="2:68" ht="409.5">
+    <row r="43" spans="2:68" ht="409.6">
       <c r="B43" s="3">
         <v>40</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="52" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E43" s="54">
         <v>5</v>
@@ -9101,7 +8948,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="M43" s="37" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="N43" s="38"/>
       <c r="O43" s="35"/>
@@ -9162,13 +9009,13 @@
         <v>0.59183673469387699</v>
       </c>
     </row>
-    <row r="44" spans="2:68" ht="409.5">
+    <row r="44" spans="2:68" ht="409.6">
       <c r="B44" s="3">
         <v>41</v>
       </c>
       <c r="C44" s="57"/>
       <c r="D44" s="52" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E44" s="54">
         <v>4</v>
@@ -9196,7 +9043,7 @@
         <v>8.6021505376343996E-2</v>
       </c>
       <c r="M44" s="37" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="N44" s="38"/>
       <c r="O44" s="35"/>
@@ -9257,15 +9104,15 @@
         <v>8.6021505376343996E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:68" ht="42.75">
+    <row r="45" spans="2:68" ht="41.4">
       <c r="B45" s="3">
         <v>42</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E45" s="54">
         <v>0</v>
@@ -9350,13 +9197,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:68" ht="42.75">
+    <row r="46" spans="2:68" ht="41.4">
       <c r="B46" s="3">
         <v>43</v>
       </c>
       <c r="C46" s="57"/>
       <c r="D46" s="52" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E46" s="54">
         <v>1</v>
@@ -9445,15 +9292,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:68" ht="71.25">
+    <row r="47" spans="2:68" ht="69">
       <c r="B47" s="3">
         <v>44</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E47" s="54">
         <v>0</v>
@@ -9538,13 +9385,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:68" ht="71.25">
+    <row r="48" spans="2:68" ht="69">
       <c r="B48" s="3">
         <v>45</v>
       </c>
       <c r="C48" s="57"/>
       <c r="D48" s="52" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E48" s="54">
         <v>1</v>
@@ -9633,15 +9480,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:68" ht="99.75">
+    <row r="49" spans="2:68" ht="96.6">
       <c r="B49" s="3">
         <v>46</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E49" s="54">
         <v>0</v>
@@ -9726,13 +9573,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:68" ht="99.75">
+    <row r="50" spans="2:68" ht="96.6">
       <c r="B50" s="3">
         <v>47</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="52" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E50" s="54">
         <v>2</v>
@@ -9760,7 +9607,7 @@
         <v>1</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N50" s="38"/>
       <c r="O50" s="35"/>
@@ -9821,13 +9668,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:68" ht="99.75">
+    <row r="51" spans="2:68" ht="96.6">
       <c r="B51" s="3">
         <v>48</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="52" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E51" s="54">
         <v>2</v>
@@ -9855,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="M51" s="37" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N51" s="38"/>
       <c r="O51" s="35"/>
@@ -9916,13 +9763,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:68" ht="99.75">
+    <row r="52" spans="2:68" ht="96.6">
       <c r="B52" s="3">
         <v>49</v>
       </c>
       <c r="C52" s="57"/>
       <c r="D52" s="52" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E52" s="54">
         <v>2</v>
@@ -9950,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="37" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N52" s="38"/>
       <c r="O52" s="35"/>
@@ -10011,15 +9858,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:68" ht="114">
+    <row r="53" spans="2:68" ht="110.4">
       <c r="B53" s="3">
         <v>50</v>
       </c>
       <c r="C53" s="56" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E53" s="54">
         <v>0</v>
@@ -10104,13 +9951,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:68" ht="114">
+    <row r="54" spans="2:68" ht="110.4">
       <c r="B54" s="3">
         <v>51</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="52" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E54" s="54">
         <v>1</v>
@@ -10199,13 +10046,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:68" ht="114">
+    <row r="55" spans="2:68" ht="110.4">
       <c r="B55" s="3">
         <v>52</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="52" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E55" s="54">
         <v>1</v>
@@ -10294,13 +10141,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:68" ht="180">
+    <row r="56" spans="2:68" ht="172.8">
       <c r="B56" s="3">
         <v>53</v>
       </c>
       <c r="C56" s="57"/>
       <c r="D56" s="52" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E56" s="54">
         <v>2</v>
@@ -10328,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="M56" s="37" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="N56" s="38"/>
       <c r="O56" s="35"/>
@@ -10389,15 +10236,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:68" ht="114">
+    <row r="57" spans="2:68" ht="110.4">
       <c r="B57" s="3">
         <v>54</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E57" s="54">
         <v>0</v>
@@ -10482,13 +10329,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:68" ht="114">
+    <row r="58" spans="2:68" ht="110.4">
       <c r="B58" s="3">
         <v>55</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="52" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E58" s="54">
         <v>1</v>
@@ -10577,13 +10424,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:68" ht="114">
+    <row r="59" spans="2:68" ht="110.4">
       <c r="B59" s="3">
         <v>56</v>
       </c>
       <c r="C59" s="59"/>
       <c r="D59" s="52" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E59" s="54">
         <v>1</v>
@@ -10672,13 +10519,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:68" ht="180">
+    <row r="60" spans="2:68" ht="172.8">
       <c r="B60" s="3">
         <v>57</v>
       </c>
       <c r="C60" s="57"/>
       <c r="D60" s="52" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E60" s="54">
         <v>2</v>
@@ -10706,7 +10553,7 @@
         <v>1</v>
       </c>
       <c r="M60" s="37" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="N60" s="38"/>
       <c r="O60" s="35"/>
@@ -10767,15 +10614,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:68" ht="114">
+    <row r="61" spans="2:68" ht="110.4">
       <c r="B61" s="3">
         <v>58</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E61" s="54">
         <v>0</v>
@@ -10860,13 +10707,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:68" ht="114">
+    <row r="62" spans="2:68" ht="110.4">
       <c r="B62" s="3">
         <v>59</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="52" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E62" s="54">
         <v>1</v>
@@ -10955,13 +10802,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:68" ht="114">
+    <row r="63" spans="2:68" ht="110.4">
       <c r="B63" s="3">
         <v>60</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="52" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E63" s="54">
         <v>1</v>
@@ -11050,13 +10897,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:68" ht="180">
+    <row r="64" spans="2:68" ht="172.8">
       <c r="B64" s="3">
         <v>61</v>
       </c>
       <c r="C64" s="57"/>
       <c r="D64" s="52" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E64" s="54">
         <v>2</v>
@@ -11084,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="M64" s="37" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="N64" s="38"/>
       <c r="O64" s="35"/>
@@ -11145,15 +10992,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:68" ht="156.75">
+    <row r="65" spans="2:68" ht="151.80000000000001">
       <c r="B65" s="3">
         <v>62</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E65" s="54">
         <v>0</v>
@@ -11238,13 +11085,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:68" ht="156.75">
+    <row r="66" spans="2:68" ht="151.80000000000001">
       <c r="B66" s="3">
         <v>63</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="52" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E66" s="54">
         <v>1</v>
@@ -11333,13 +11180,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:68" ht="156.75">
+    <row r="67" spans="2:68" ht="151.80000000000001">
       <c r="B67" s="3">
         <v>64</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="52" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E67" s="54">
         <v>2</v>
@@ -11367,7 +11214,7 @@
         <v>1</v>
       </c>
       <c r="M67" s="37" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="N67" s="38"/>
       <c r="O67" s="35"/>
@@ -11428,13 +11275,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:68" ht="315">
+    <row r="68" spans="2:68" ht="302.39999999999998">
       <c r="B68" s="3">
         <v>65</v>
       </c>
       <c r="C68" s="57"/>
       <c r="D68" s="52" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E68" s="54">
         <v>3</v>
@@ -11523,15 +11370,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:68" ht="128.25">
+    <row r="69" spans="2:68" ht="124.2">
       <c r="B69" s="3">
         <v>66</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E69" s="54">
         <v>0</v>
@@ -11616,13 +11463,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:68" ht="128.25">
+    <row r="70" spans="2:68" ht="124.2">
       <c r="B70" s="3">
         <v>67</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="52" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E70" s="54">
         <v>2</v>
@@ -11650,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="M70" s="37" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="N70" s="38"/>
       <c r="O70" s="35"/>
@@ -11711,13 +11558,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:68" ht="128.25">
+    <row r="71" spans="2:68" ht="124.2">
       <c r="B71" s="3">
         <v>68</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="52" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E71" s="54">
         <v>2</v>
@@ -11745,7 +11592,7 @@
         <v>1</v>
       </c>
       <c r="M71" s="37" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="N71" s="38"/>
       <c r="O71" s="35"/>
@@ -11806,13 +11653,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:68" ht="135">
+    <row r="72" spans="2:68" ht="129.6">
       <c r="B72" s="3">
         <v>69</v>
       </c>
       <c r="C72" s="57"/>
       <c r="D72" s="52" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E72" s="54">
         <v>3</v>
@@ -11840,7 +11687,7 @@
         <v>1</v>
       </c>
       <c r="M72" s="37" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="N72" s="38"/>
       <c r="O72" s="35"/>
@@ -11901,15 +11748,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:68" ht="142.5">
+    <row r="73" spans="2:68" ht="138">
       <c r="B73" s="3">
         <v>70</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E73" s="54">
         <v>0</v>
@@ -11994,13 +11841,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:68" ht="299.25">
+    <row r="74" spans="2:68" ht="289.8">
       <c r="B74" s="3">
         <v>71</v>
       </c>
       <c r="C74" s="59"/>
       <c r="D74" s="52" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E74" s="54">
         <v>3</v>
@@ -12028,7 +11875,7 @@
         <v>4.7619047619047603E-2</v>
       </c>
       <c r="M74" s="37" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="N74" s="38"/>
       <c r="O74" s="35"/>
@@ -12089,13 +11936,13 @@
         <v>4.7619047619047603E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:68" ht="409.5">
+    <row r="75" spans="2:68" ht="400.2">
       <c r="B75" s="3">
         <v>72</v>
       </c>
       <c r="C75" s="59"/>
       <c r="D75" s="52" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E75" s="54">
         <v>5</v>
@@ -12123,7 +11970,7 @@
         <v>0.31034482758620602</v>
       </c>
       <c r="M75" s="37" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="N75" s="38"/>
       <c r="O75" s="35"/>
@@ -12184,13 +12031,13 @@
         <v>0.31034482758620602</v>
       </c>
     </row>
-    <row r="76" spans="2:68" ht="409.5">
+    <row r="76" spans="2:68" ht="409.6">
       <c r="B76" s="3">
         <v>73</v>
       </c>
       <c r="C76" s="59"/>
       <c r="D76" s="52" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E76" s="54">
         <v>5</v>
@@ -12218,7 +12065,7 @@
         <v>1.7543859649122799E-2</v>
       </c>
       <c r="M76" s="37" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="N76" s="38"/>
       <c r="O76" s="35"/>
@@ -12279,13 +12126,13 @@
         <v>1.7543859649122799E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:68" ht="142.5">
+    <row r="77" spans="2:68" ht="138">
       <c r="B77" s="3">
         <v>74</v>
       </c>
       <c r="C77" s="59"/>
       <c r="D77" s="52" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E77" s="54">
         <v>2</v>
@@ -12374,13 +12221,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:68" ht="142.5">
+    <row r="78" spans="2:68" ht="138">
       <c r="B78" s="3">
         <v>75</v>
       </c>
       <c r="C78" s="59"/>
       <c r="D78" s="52" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E78" s="54">
         <v>2</v>
@@ -12469,13 +12316,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:68" ht="299.25">
+    <row r="79" spans="2:68" ht="289.8">
       <c r="B79" s="3">
         <v>76</v>
       </c>
       <c r="C79" s="59"/>
       <c r="D79" s="52" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E79" s="54">
         <v>3</v>
@@ -12503,7 +12350,7 @@
         <v>4.7619047619047603E-2</v>
       </c>
       <c r="M79" s="37" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="N79" s="38"/>
       <c r="O79" s="35"/>
@@ -12564,13 +12411,13 @@
         <v>4.7619047619047603E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:68" ht="409.5">
+    <row r="80" spans="2:68" ht="409.6">
       <c r="B80" s="3">
         <v>77</v>
       </c>
       <c r="C80" s="57"/>
       <c r="D80" s="52" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E80" s="54">
         <v>5</v>
@@ -12598,7 +12445,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
       <c r="M80" s="37" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="N80" s="38"/>
       <c r="O80" s="35"/>
@@ -12659,15 +12506,15 @@
         <v>8.8888888888888795E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:68" ht="242.25">
+    <row r="81" spans="2:68" ht="234.6">
       <c r="B81" s="3">
         <v>78</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E81" s="54">
         <v>0</v>
@@ -12752,13 +12599,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:68" ht="242.25">
+    <row r="82" spans="2:68" ht="234.6">
       <c r="B82" s="3">
         <v>79</v>
       </c>
       <c r="C82" s="59"/>
       <c r="D82" s="52" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E82" s="54">
         <v>1</v>
@@ -12847,13 +12694,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:68" ht="409.5">
+    <row r="83" spans="2:68" ht="409.6">
       <c r="B83" s="3">
         <v>80</v>
       </c>
       <c r="C83" s="59"/>
       <c r="D83" s="52" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E83" s="54">
         <v>5</v>
@@ -12881,7 +12728,7 @@
         <v>0.59183673469387699</v>
       </c>
       <c r="M83" s="37" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="N83" s="38"/>
       <c r="O83" s="35"/>
@@ -12942,13 +12789,13 @@
         <v>0.59183673469387699</v>
       </c>
     </row>
-    <row r="84" spans="2:68" ht="409.5">
+    <row r="84" spans="2:68" ht="409.6">
       <c r="B84" s="3">
         <v>81</v>
       </c>
       <c r="C84" s="59"/>
       <c r="D84" s="52" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E84" s="54">
         <v>3</v>
@@ -13037,13 +12884,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:68" ht="409.5">
+    <row r="85" spans="2:68" ht="409.6">
       <c r="B85" s="3">
         <v>82</v>
       </c>
       <c r="C85" s="59"/>
       <c r="D85" s="52" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E85" s="54">
         <v>5</v>
@@ -13071,7 +12918,7 @@
         <v>0.51020408163265296</v>
       </c>
       <c r="M85" s="37" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="N85" s="38"/>
       <c r="O85" s="35"/>
@@ -13132,13 +12979,13 @@
         <v>0.51020408163265296</v>
       </c>
     </row>
-    <row r="86" spans="2:68" ht="242.25">
+    <row r="86" spans="2:68" ht="234.6">
       <c r="B86" s="3">
         <v>83</v>
       </c>
       <c r="C86" s="59"/>
       <c r="D86" s="52" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E86" s="54">
         <v>4</v>
@@ -13166,7 +13013,7 @@
         <v>0.38461538461538403</v>
       </c>
       <c r="M86" s="37" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N86" s="38"/>
       <c r="O86" s="35"/>
@@ -13227,13 +13074,13 @@
         <v>0.38461538461538403</v>
       </c>
     </row>
-    <row r="87" spans="2:68" ht="242.25">
+    <row r="87" spans="2:68" ht="234.6">
       <c r="B87" s="3">
         <v>84</v>
       </c>
       <c r="C87" s="59"/>
       <c r="D87" s="52" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E87" s="54">
         <v>1</v>
@@ -13322,13 +13169,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:68" ht="409.5">
+    <row r="88" spans="2:68" ht="409.6">
       <c r="B88" s="3">
         <v>85</v>
       </c>
       <c r="C88" s="57"/>
       <c r="D88" s="52" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E88" s="54">
         <v>5</v>
@@ -13417,15 +13264,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:68" ht="128.25">
+    <row r="89" spans="2:68" ht="124.2">
       <c r="B89" s="3">
         <v>86</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E89" s="54">
         <v>0</v>
@@ -13510,13 +13357,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:68" ht="128.25">
+    <row r="90" spans="2:68" ht="124.2">
       <c r="B90" s="3">
         <v>87</v>
       </c>
       <c r="C90" s="59"/>
       <c r="D90" s="52" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E90" s="54">
         <v>2</v>
@@ -13544,7 +13391,7 @@
         <v>0.5</v>
       </c>
       <c r="M90" s="37" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="N90" s="38"/>
       <c r="O90" s="35"/>
@@ -13605,13 +13452,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="2:68" ht="128.25">
+    <row r="91" spans="2:68" ht="124.2">
       <c r="B91" s="3">
         <v>88</v>
       </c>
       <c r="C91" s="59"/>
       <c r="D91" s="52" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E91" s="54">
         <v>2</v>
@@ -13700,13 +13547,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:68" ht="128.25">
+    <row r="92" spans="2:68" ht="124.2">
       <c r="B92" s="3">
         <v>89</v>
       </c>
       <c r="C92" s="57"/>
       <c r="D92" s="52" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E92" s="54">
         <v>3</v>
@@ -13795,15 +13642,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:68" ht="128.25">
+    <row r="93" spans="2:68" ht="124.2">
       <c r="B93" s="3">
         <v>90</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E93" s="54">
         <v>0</v>
@@ -13888,13 +13735,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:68" ht="128.25">
+    <row r="94" spans="2:68" ht="124.2">
       <c r="B94" s="3">
         <v>91</v>
       </c>
       <c r="C94" s="59"/>
       <c r="D94" s="52" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E94" s="54">
         <v>2</v>
@@ -13922,7 +13769,7 @@
         <v>1</v>
       </c>
       <c r="M94" s="37" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="N94" s="38"/>
       <c r="O94" s="35"/>
@@ -13983,13 +13830,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:68" ht="128.25">
+    <row r="95" spans="2:68" ht="124.2">
       <c r="B95" s="3">
         <v>92</v>
       </c>
       <c r="C95" s="59"/>
       <c r="D95" s="52" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E95" s="54">
         <v>1</v>
@@ -14078,13 +13925,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:68" ht="128.25">
+    <row r="96" spans="2:68" ht="124.2">
       <c r="B96" s="3">
         <v>93</v>
       </c>
       <c r="C96" s="57"/>
       <c r="D96" s="52" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E96" s="54">
         <v>3</v>
@@ -14173,15 +14020,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:68" ht="71.25">
+    <row r="97" spans="2:68" ht="69">
       <c r="B97" s="3">
         <v>94</v>
       </c>
       <c r="C97" s="56" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D97" s="52" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E97" s="54">
         <v>0</v>
@@ -14266,13 +14113,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:68" ht="71.25">
+    <row r="98" spans="2:68" ht="69">
       <c r="B98" s="3">
         <v>95</v>
       </c>
       <c r="C98" s="57"/>
       <c r="D98" s="52" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E98" s="54">
         <v>1</v>
@@ -14361,15 +14208,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:68" ht="42.75">
+    <row r="99" spans="2:68" ht="41.4">
       <c r="B99" s="3">
         <v>96</v>
       </c>
       <c r="C99" s="56" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D99" s="52" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E99" s="54">
         <f t="shared" ref="E99:E102" si="6">IF(F99="", 0, LEN(F99) - LEN(SUBSTITUTE(F99, CHAR(10), "")) + 1)</f>
@@ -14455,13 +14302,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:68" ht="42.75">
+    <row r="100" spans="2:68" ht="41.4">
       <c r="B100" s="3">
         <v>97</v>
       </c>
       <c r="C100" s="57"/>
       <c r="D100" s="52" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E100" s="54">
         <f t="shared" si="6"/>
@@ -14551,15 +14398,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:68" ht="71.25">
+    <row r="101" spans="2:68" ht="69">
       <c r="B101" s="3">
         <v>98</v>
       </c>
       <c r="C101" s="56" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D101" s="52" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E101" s="54">
         <f t="shared" si="6"/>
@@ -14645,13 +14492,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:68" ht="72" thickBot="1">
+    <row r="102" spans="2:68" ht="69.599999999999994" thickBot="1">
       <c r="B102" s="6">
         <v>99</v>
       </c>
       <c r="C102" s="58"/>
       <c r="D102" s="53" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E102" s="55">
         <f t="shared" si="6"/>
@@ -14741,9 +14588,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:68" ht="15" thickBot="1">
+    <row r="103" spans="2:68" ht="14.4" thickBot="1">
       <c r="BO103" s="19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="BP103" s="12">
         <f>AVERAGEA(BP4:BP102)</f>
